--- a/Daisy-xls/ResearchPages/research-pheochromocytoma-and-paraganglioma.xlsx
+++ b/Daisy-xls/ResearchPages/research-pheochromocytoma-and-paraganglioma.xlsx
@@ -85,27 +85,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -141,15 +126,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -483,15 +470,17 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>430356</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>41169</v>
       </c>
     </row>
